--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2152.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2152.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.234039382241587</v>
+        <v>0.8328052759170532</v>
       </c>
       <c r="B1">
-        <v>2.256180838501564</v>
+        <v>1.363547682762146</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.724422006076584</v>
+        <v>1.749380826950073</v>
       </c>
       <c r="E1">
-        <v>0.7794156460094545</v>
+        <v>1.143595337867737</v>
       </c>
     </row>
   </sheetData>
